--- a/data_quarter/zb/文化/规模以上文化及相关产业企业营业收入/按行业分规模以上文化及相关产业企业营业收入.xlsx
+++ b/data_quarter/zb/文化/规模以上文化及相关产业企业营业收入/按行业分规模以上文化及相关产业企业营业收入.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U9"/>
+  <dimension ref="A1:AE9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -534,11 +534,61 @@
           <t>规模以上新闻信息服务营业收入_累计增长</t>
         </is>
       </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>规模以上内容创作生产营业收入</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>规模以上创意设计服务营业收入</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>规模以上文化传播渠道营业收入</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>规模以上文化及相关产业企业营业收入</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>规模以上文化娱乐休闲服务营业收入</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>规模以上文化投资运营营业收入</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>规模以上文化消费终端生产营业收入</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>规模以上文化装备生产营业收入</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>规模以上文化辅助生产和中介服务营业收入</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>规模以上新闻信息服务营业收入</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2020年第一季度</t>
+          <t>2020年A</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -600,146 +650,236 @@
       </c>
       <c r="U2" t="n">
         <v>11.6</v>
+      </c>
+      <c r="V2" t="n">
+        <v>3823</v>
+      </c>
+      <c r="W2" t="n">
+        <v>2736</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1841</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>16889</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>119</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>47</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>3136</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>1029</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>2419</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>1739</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2020年第三季度</t>
+          <t>2020年B</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15855</v>
+        <v>9743</v>
       </c>
       <c r="C3" t="n">
-        <v>4.1</v>
+        <v>-0.3</v>
       </c>
       <c r="D3" t="n">
-        <v>10276</v>
+        <v>6250</v>
       </c>
       <c r="E3" t="n">
-        <v>9</v>
+        <v>3.3</v>
       </c>
       <c r="F3" t="n">
-        <v>6878</v>
+        <v>4197</v>
       </c>
       <c r="G3" t="n">
-        <v>-16.5</v>
+        <v>-24.4</v>
       </c>
       <c r="H3" t="n">
-        <v>66119</v>
+        <v>40196</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.6</v>
+        <v>-6.2</v>
       </c>
       <c r="J3" t="n">
-        <v>683</v>
+        <v>338</v>
       </c>
       <c r="K3" t="n">
-        <v>-39.9</v>
+        <v>-48.8</v>
       </c>
       <c r="L3" t="n">
-        <v>298</v>
+        <v>191</v>
       </c>
       <c r="M3" t="n">
-        <v>0.2</v>
+        <v>-1.9</v>
       </c>
       <c r="N3" t="n">
-        <v>12549</v>
+        <v>7399</v>
       </c>
       <c r="O3" t="n">
-        <v>0.8</v>
+        <v>-5.9</v>
       </c>
       <c r="P3" t="n">
-        <v>3975</v>
+        <v>2436</v>
       </c>
       <c r="Q3" t="n">
-        <v>-3.4</v>
+        <v>-10</v>
       </c>
       <c r="R3" t="n">
-        <v>9171</v>
+        <v>5646</v>
       </c>
       <c r="S3" t="n">
-        <v>-9.5</v>
+        <v>-13.3</v>
       </c>
       <c r="T3" t="n">
-        <v>6434</v>
+        <v>3996</v>
       </c>
       <c r="U3" t="n">
-        <v>17</v>
+        <v>13.4</v>
+      </c>
+      <c r="V3" t="n">
+        <v>5920</v>
+      </c>
+      <c r="W3" t="n">
+        <v>3514</v>
+      </c>
+      <c r="X3" t="n">
+        <v>2356</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>23307</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>219</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>144</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>4263</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>1407</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>3227</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>2257</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2020年第二季度</t>
+          <t>2020年C</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9743</v>
+        <v>15855</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.3</v>
+        <v>4.1</v>
       </c>
       <c r="D4" t="n">
-        <v>6250</v>
+        <v>10276</v>
       </c>
       <c r="E4" t="n">
-        <v>3.3</v>
+        <v>9</v>
       </c>
       <c r="F4" t="n">
-        <v>4197</v>
+        <v>6878</v>
       </c>
       <c r="G4" t="n">
-        <v>-24.4</v>
+        <v>-16.5</v>
       </c>
       <c r="H4" t="n">
-        <v>40196</v>
+        <v>66119</v>
       </c>
       <c r="I4" t="n">
-        <v>-6.2</v>
+        <v>-0.6</v>
       </c>
       <c r="J4" t="n">
-        <v>338</v>
+        <v>683</v>
       </c>
       <c r="K4" t="n">
-        <v>-48.8</v>
+        <v>-39.9</v>
       </c>
       <c r="L4" t="n">
-        <v>191</v>
+        <v>298</v>
       </c>
       <c r="M4" t="n">
-        <v>-1.9</v>
+        <v>0.2</v>
       </c>
       <c r="N4" t="n">
-        <v>7399</v>
+        <v>12549</v>
       </c>
       <c r="O4" t="n">
-        <v>-5.9</v>
+        <v>0.8</v>
       </c>
       <c r="P4" t="n">
-        <v>2436</v>
+        <v>3975</v>
       </c>
       <c r="Q4" t="n">
-        <v>-10</v>
+        <v>-3.4</v>
       </c>
       <c r="R4" t="n">
-        <v>5646</v>
+        <v>9171</v>
       </c>
       <c r="S4" t="n">
-        <v>-13.3</v>
+        <v>-9.5</v>
       </c>
       <c r="T4" t="n">
-        <v>3996</v>
+        <v>6434</v>
       </c>
       <c r="U4" t="n">
-        <v>13.4</v>
+        <v>17</v>
+      </c>
+      <c r="V4" t="n">
+        <v>6112</v>
+      </c>
+      <c r="W4" t="n">
+        <v>4026</v>
+      </c>
+      <c r="X4" t="n">
+        <v>2681</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>25923</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>345</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>107</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>5150</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>1539</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>3525</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>2438</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2020年第四季度</t>
+          <t>2020年D</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -801,12 +941,42 @@
       </c>
       <c r="U5" t="n">
         <v>18</v>
+      </c>
+      <c r="V5" t="n">
+        <v>7420</v>
+      </c>
+      <c r="W5" t="n">
+        <v>5369</v>
+      </c>
+      <c r="X5" t="n">
+        <v>3550</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>32395</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>432</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>153</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>6259</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>1918</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>4348</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>2948</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2021年第一季度</t>
+          <t>2021年A</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -868,146 +1038,236 @@
       </c>
       <c r="U6" t="n">
         <v>34.9</v>
+      </c>
+      <c r="V6" t="n">
+        <v>5319</v>
+      </c>
+      <c r="W6" t="n">
+        <v>4266</v>
+      </c>
+      <c r="X6" t="n">
+        <v>3007</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>25498</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>233</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>102</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>4803</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>1362</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>3435</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>2972</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2021年第三季度</t>
+          <t>2021年B</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17693</v>
+        <v>11484</v>
       </c>
       <c r="C7" t="n">
-        <v>18.6</v>
+        <v>25.3</v>
       </c>
       <c r="D7" t="n">
-        <v>13787</v>
+        <v>9019</v>
       </c>
       <c r="E7" t="n">
-        <v>24</v>
+        <v>33.3</v>
       </c>
       <c r="F7" t="n">
-        <v>9309</v>
+        <v>6169</v>
       </c>
       <c r="G7" t="n">
-        <v>30.1</v>
+        <v>42.6</v>
       </c>
       <c r="H7" t="n">
-        <v>84205</v>
+        <v>54380</v>
       </c>
       <c r="I7" t="n">
-        <v>21.8</v>
+        <v>30.4</v>
       </c>
       <c r="J7" t="n">
-        <v>916</v>
+        <v>592</v>
       </c>
       <c r="K7" t="n">
-        <v>35.3</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="L7" t="n">
+        <v>226</v>
+      </c>
+      <c r="M7" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="N7" t="n">
+        <v>10094</v>
+      </c>
+      <c r="O7" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3023</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="R7" t="n">
+        <v>7359</v>
+      </c>
+      <c r="S7" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="T7" t="n">
+        <v>6415</v>
+      </c>
+      <c r="U7" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="V7" t="n">
+        <v>6165</v>
+      </c>
+      <c r="W7" t="n">
+        <v>4753</v>
+      </c>
+      <c r="X7" t="n">
+        <v>3162</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>28882</v>
+      </c>
+      <c r="Z7" t="n">
         <v>359</v>
       </c>
-      <c r="M7" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="N7" t="n">
-        <v>15974</v>
-      </c>
-      <c r="O7" t="n">
-        <v>22</v>
-      </c>
-      <c r="P7" t="n">
-        <v>4880</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>17.8</v>
-      </c>
-      <c r="R7" t="n">
-        <v>11441</v>
-      </c>
-      <c r="S7" t="n">
-        <v>18.3</v>
-      </c>
-      <c r="T7" t="n">
-        <v>9847</v>
-      </c>
-      <c r="U7" t="n">
-        <v>22.1</v>
+      <c r="AA7" t="n">
+        <v>124</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>5291</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>1661</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>3924</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>3443</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2021年第二季度</t>
+          <t>2021年C</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11484</v>
+        <v>17693</v>
       </c>
       <c r="C8" t="n">
-        <v>25.3</v>
+        <v>18.6</v>
       </c>
       <c r="D8" t="n">
-        <v>9019</v>
+        <v>13787</v>
       </c>
       <c r="E8" t="n">
-        <v>33.3</v>
+        <v>24</v>
       </c>
       <c r="F8" t="n">
-        <v>6169</v>
+        <v>9309</v>
       </c>
       <c r="G8" t="n">
-        <v>42.6</v>
+        <v>30.1</v>
       </c>
       <c r="H8" t="n">
-        <v>54380</v>
+        <v>84205</v>
       </c>
       <c r="I8" t="n">
-        <v>30.4</v>
+        <v>21.8</v>
       </c>
       <c r="J8" t="n">
-        <v>592</v>
+        <v>916</v>
       </c>
       <c r="K8" t="n">
-        <v>78.90000000000001</v>
+        <v>35.3</v>
       </c>
       <c r="L8" t="n">
-        <v>226</v>
+        <v>359</v>
       </c>
       <c r="M8" t="n">
-        <v>20.1</v>
+        <v>13.8</v>
       </c>
       <c r="N8" t="n">
-        <v>10094</v>
+        <v>15974</v>
       </c>
       <c r="O8" t="n">
-        <v>32.1</v>
+        <v>22</v>
       </c>
       <c r="P8" t="n">
-        <v>3023</v>
+        <v>4880</v>
       </c>
       <c r="Q8" t="n">
-        <v>25.7</v>
+        <v>17.8</v>
       </c>
       <c r="R8" t="n">
-        <v>7359</v>
+        <v>11441</v>
       </c>
       <c r="S8" t="n">
-        <v>25.8</v>
+        <v>18.3</v>
       </c>
       <c r="T8" t="n">
-        <v>6415</v>
+        <v>9847</v>
       </c>
       <c r="U8" t="n">
-        <v>27.7</v>
+        <v>22.1</v>
+      </c>
+      <c r="V8" t="n">
+        <v>6209</v>
+      </c>
+      <c r="W8" t="n">
+        <v>4768</v>
+      </c>
+      <c r="X8" t="n">
+        <v>3140</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>29825</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>324</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>133</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>5880</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>1857</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>4082</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>3432</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2021年第四季度</t>
+          <t>2021年D</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1069,6 +1329,36 @@
       </c>
       <c r="U9" t="n">
         <v>15.5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>7470</v>
+      </c>
+      <c r="W9" t="n">
+        <v>5778</v>
+      </c>
+      <c r="X9" t="n">
+        <v>3653</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>34859</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>390</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>188</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>6680</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>2060</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>4771</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>3868</v>
       </c>
     </row>
   </sheetData>

--- a/data_quarter/zb/文化/规模以上文化及相关产业企业营业收入/按行业分规模以上文化及相关产业企业营业收入.xlsx
+++ b/data_quarter/zb/文化/规模以上文化及相关产业企业营业收入/按行业分规模以上文化及相关产业企业营业收入.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE9"/>
+  <dimension ref="A1:U17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -534,831 +534,1057 @@
           <t>规模以上新闻信息服务营业收入_累计增长</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>规模以上内容创作生产营业收入</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>规模以上创意设计服务营业收入</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>规模以上文化传播渠道营业收入</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>规模以上文化及相关产业企业营业收入</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>规模以上文化娱乐休闲服务营业收入</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>规模以上文化投资运营营业收入</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>规模以上文化消费终端生产营业收入</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>规模以上文化装备生产营业收入</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>规模以上文化辅助生产和中介服务营业收入</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>规模以上新闻信息服务营业收入</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2020年A</t>
+          <t>2018年A</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3823</v>
+        <v>3889</v>
       </c>
       <c r="C2" t="n">
-        <v>-7.7</v>
+        <v>12.1</v>
       </c>
       <c r="D2" t="n">
-        <v>2736</v>
+        <v>2220</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.5</v>
+        <v>14.5</v>
       </c>
       <c r="F2" t="n">
-        <v>1841</v>
+        <v>2080</v>
       </c>
       <c r="G2" t="n">
-        <v>-31.6</v>
+        <v>7.8</v>
       </c>
       <c r="H2" t="n">
-        <v>16889</v>
+        <v>19052</v>
       </c>
       <c r="I2" t="n">
-        <v>-13.9</v>
+        <v>10.5</v>
       </c>
       <c r="J2" t="n">
-        <v>119</v>
+        <v>296</v>
       </c>
       <c r="K2" t="n">
-        <v>-59.1</v>
+        <v>2.4</v>
       </c>
       <c r="L2" t="n">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="M2" t="n">
-        <v>-10</v>
+        <v>26</v>
       </c>
       <c r="N2" t="n">
-        <v>3136</v>
+        <v>3677</v>
       </c>
       <c r="O2" t="n">
-        <v>-15.1</v>
+        <v>5.4</v>
       </c>
       <c r="P2" t="n">
-        <v>1029</v>
+        <v>1497</v>
       </c>
       <c r="Q2" t="n">
-        <v>-19.8</v>
+        <v>1.7</v>
       </c>
       <c r="R2" t="n">
-        <v>2419</v>
+        <v>3592</v>
       </c>
       <c r="S2" t="n">
-        <v>-21.7</v>
+        <v>8.4</v>
       </c>
       <c r="T2" t="n">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="U2" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="V2" t="n">
-        <v>3823</v>
-      </c>
-      <c r="W2" t="n">
-        <v>2736</v>
-      </c>
-      <c r="X2" t="n">
-        <v>1841</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>16889</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>119</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>47</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>3136</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>1029</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>2419</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>1739</v>
+        <v>34.6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2020年B</t>
+          <t>2018年C</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9743</v>
+        <v>13454</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.3</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>6250</v>
+        <v>7565</v>
       </c>
       <c r="E3" t="n">
-        <v>3.3</v>
+        <v>18.7</v>
       </c>
       <c r="F3" t="n">
-        <v>4197</v>
+        <v>6781</v>
       </c>
       <c r="G3" t="n">
-        <v>-24.4</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H3" t="n">
-        <v>40196</v>
+        <v>63591</v>
       </c>
       <c r="I3" t="n">
-        <v>-6.2</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="J3" t="n">
-        <v>338</v>
+        <v>1106</v>
       </c>
       <c r="K3" t="n">
-        <v>-48.8</v>
+        <v>-0.7</v>
       </c>
       <c r="L3" t="n">
-        <v>191</v>
+        <v>357</v>
       </c>
       <c r="M3" t="n">
-        <v>-1.9</v>
+        <v>-2.1</v>
       </c>
       <c r="N3" t="n">
-        <v>7399</v>
+        <v>12170</v>
       </c>
       <c r="O3" t="n">
-        <v>-5.9</v>
+        <v>2.8</v>
       </c>
       <c r="P3" t="n">
-        <v>2436</v>
+        <v>4620</v>
       </c>
       <c r="Q3" t="n">
-        <v>-10</v>
+        <v>2.8</v>
       </c>
       <c r="R3" t="n">
-        <v>5646</v>
-      </c>
-      <c r="S3" t="n">
-        <v>-13.3</v>
-      </c>
+        <v>11611</v>
+      </c>
+      <c r="S3" t="inlineStr"/>
       <c r="T3" t="n">
-        <v>3996</v>
+        <v>5927</v>
       </c>
       <c r="U3" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="V3" t="n">
-        <v>5920</v>
-      </c>
-      <c r="W3" t="n">
-        <v>3514</v>
-      </c>
-      <c r="X3" t="n">
-        <v>2356</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>23307</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>219</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>144</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>4263</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>1407</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>3227</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>2257</v>
+        <v>26.7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2020年C</t>
+          <t>2018年B</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15855</v>
+        <v>8820</v>
       </c>
       <c r="C4" t="n">
-        <v>4.1</v>
+        <v>11.9</v>
       </c>
       <c r="D4" t="n">
-        <v>10276</v>
+        <v>5143</v>
       </c>
       <c r="E4" t="n">
-        <v>9</v>
+        <v>15.1</v>
       </c>
       <c r="F4" t="n">
-        <v>6878</v>
+        <v>4501</v>
       </c>
       <c r="G4" t="n">
-        <v>-16.5</v>
+        <v>10</v>
       </c>
       <c r="H4" t="n">
-        <v>66119</v>
+        <v>42227</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.6</v>
+        <v>9.9</v>
       </c>
       <c r="J4" t="n">
-        <v>683</v>
+        <v>663</v>
       </c>
       <c r="K4" t="n">
-        <v>-39.9</v>
+        <v>0.2</v>
       </c>
       <c r="L4" t="n">
-        <v>298</v>
+        <v>349</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2</v>
+        <v>3.5</v>
       </c>
       <c r="N4" t="n">
-        <v>12549</v>
+        <v>7911</v>
       </c>
       <c r="O4" t="n">
-        <v>0.8</v>
+        <v>4.2</v>
       </c>
       <c r="P4" t="n">
-        <v>3975</v>
+        <v>3313</v>
       </c>
       <c r="Q4" t="n">
-        <v>-3.4</v>
+        <v>0.7</v>
       </c>
       <c r="R4" t="n">
-        <v>9171</v>
+        <v>7783</v>
       </c>
       <c r="S4" t="n">
-        <v>-9.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="T4" t="n">
-        <v>6434</v>
+        <v>3744</v>
       </c>
       <c r="U4" t="n">
-        <v>17</v>
-      </c>
-      <c r="V4" t="n">
-        <v>6112</v>
-      </c>
-      <c r="W4" t="n">
-        <v>4026</v>
-      </c>
-      <c r="X4" t="n">
-        <v>2681</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>25923</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>345</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>107</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>5150</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>1539</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>3525</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>2438</v>
+        <v>29.4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2020年D</t>
+          <t>2018年D</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>23275</v>
+        <v>18239</v>
       </c>
       <c r="C5" t="n">
-        <v>4.7</v>
+        <v>8.1</v>
       </c>
       <c r="D5" t="n">
-        <v>15645</v>
+        <v>11069</v>
       </c>
       <c r="E5" t="n">
-        <v>11.1</v>
+        <v>16.5</v>
       </c>
       <c r="F5" t="n">
-        <v>10428</v>
+        <v>10193</v>
       </c>
       <c r="G5" t="n">
-        <v>-11.8</v>
+        <v>12</v>
       </c>
       <c r="H5" t="n">
-        <v>98514</v>
+        <v>89257</v>
       </c>
       <c r="I5" t="n">
-        <v>2.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J5" t="n">
-        <v>1115</v>
+        <v>1489</v>
       </c>
       <c r="K5" t="n">
-        <v>-30.2</v>
+        <v>-1.9</v>
       </c>
       <c r="L5" t="n">
-        <v>451</v>
+        <v>412</v>
       </c>
       <c r="M5" t="n">
-        <v>2.8</v>
+        <v>-0.2</v>
       </c>
       <c r="N5" t="n">
-        <v>18808</v>
+        <v>16284</v>
       </c>
       <c r="O5" t="n">
-        <v>5.1</v>
+        <v>1.9</v>
       </c>
       <c r="P5" t="n">
-        <v>5893</v>
+        <v>8378</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.1</v>
+        <v>0.2</v>
       </c>
       <c r="R5" t="n">
-        <v>13519</v>
+        <v>15094</v>
       </c>
       <c r="S5" t="n">
-        <v>-6.9</v>
+        <v>6.6</v>
       </c>
       <c r="T5" t="n">
-        <v>9382</v>
+        <v>8099</v>
       </c>
       <c r="U5" t="n">
-        <v>18</v>
-      </c>
-      <c r="V5" t="n">
-        <v>7420</v>
-      </c>
-      <c r="W5" t="n">
-        <v>5369</v>
-      </c>
-      <c r="X5" t="n">
-        <v>3550</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>32395</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>432</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>153</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>6259</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>1918</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>4348</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>2948</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2021年A</t>
+          <t>2019年A</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5319</v>
+        <v>4669</v>
       </c>
       <c r="C6" t="n">
-        <v>32.3</v>
+        <v>10.1</v>
       </c>
       <c r="D6" t="n">
-        <v>4266</v>
+        <v>2532</v>
       </c>
       <c r="E6" t="n">
-        <v>45</v>
+        <v>12.5</v>
       </c>
       <c r="F6" t="n">
-        <v>3007</v>
+        <v>2540</v>
       </c>
       <c r="G6" t="n">
-        <v>50</v>
+        <v>11.5</v>
       </c>
       <c r="H6" t="n">
-        <v>25498</v>
+        <v>19799</v>
       </c>
       <c r="I6" t="n">
-        <v>40.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="J6" t="n">
-        <v>233</v>
+        <v>301</v>
       </c>
       <c r="K6" t="n">
-        <v>101.8</v>
+        <v>2.4</v>
       </c>
       <c r="L6" t="n">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="M6" t="n">
-        <v>34.2</v>
+        <v>13.3</v>
       </c>
       <c r="N6" t="n">
-        <v>4803</v>
+        <v>3554</v>
       </c>
       <c r="O6" t="n">
-        <v>46.2</v>
+        <v>6</v>
       </c>
       <c r="P6" t="n">
-        <v>1362</v>
+        <v>1367</v>
       </c>
       <c r="Q6" t="n">
-        <v>37.4</v>
+        <v>-1.4</v>
       </c>
       <c r="R6" t="n">
-        <v>3435</v>
+        <v>3286</v>
       </c>
       <c r="S6" t="n">
-        <v>35.9</v>
+        <v>3.2</v>
       </c>
       <c r="T6" t="n">
-        <v>2972</v>
+        <v>1454</v>
       </c>
       <c r="U6" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="V6" t="n">
-        <v>5319</v>
-      </c>
-      <c r="W6" t="n">
-        <v>4266</v>
-      </c>
-      <c r="X6" t="n">
-        <v>3007</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>25498</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>233</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>102</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>4803</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>1362</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>3435</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>2972</v>
+        <v>20.9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2021年B</t>
+          <t>2019年C</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11484</v>
+        <v>15142</v>
       </c>
       <c r="C7" t="n">
-        <v>25.3</v>
+        <v>9.1</v>
       </c>
       <c r="D7" t="n">
-        <v>9019</v>
+        <v>8256</v>
       </c>
       <c r="E7" t="n">
-        <v>33.3</v>
+        <v>12.2</v>
       </c>
       <c r="F7" t="n">
-        <v>6169</v>
+        <v>7556</v>
       </c>
       <c r="G7" t="n">
-        <v>42.6</v>
+        <v>7.3</v>
       </c>
       <c r="H7" t="n">
-        <v>54380</v>
+        <v>62187</v>
       </c>
       <c r="I7" t="n">
-        <v>30.4</v>
+        <v>7.6</v>
       </c>
       <c r="J7" t="n">
-        <v>592</v>
+        <v>1147</v>
       </c>
       <c r="K7" t="n">
-        <v>78.90000000000001</v>
+        <v>5.8</v>
       </c>
       <c r="L7" t="n">
-        <v>226</v>
+        <v>308</v>
       </c>
       <c r="M7" t="n">
-        <v>20.1</v>
+        <v>12.3</v>
       </c>
       <c r="N7" t="n">
-        <v>10094</v>
+        <v>11456</v>
       </c>
       <c r="O7" t="n">
-        <v>32.1</v>
+        <v>6.3</v>
       </c>
       <c r="P7" t="n">
-        <v>3023</v>
+        <v>3945</v>
       </c>
       <c r="Q7" t="n">
-        <v>25.7</v>
+        <v>3.6</v>
       </c>
       <c r="R7" t="n">
-        <v>7359</v>
+        <v>9721</v>
       </c>
       <c r="S7" t="n">
-        <v>25.8</v>
+        <v>-0.2</v>
       </c>
       <c r="T7" t="n">
-        <v>6415</v>
+        <v>4656</v>
       </c>
       <c r="U7" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="V7" t="n">
-        <v>6165</v>
-      </c>
-      <c r="W7" t="n">
-        <v>4753</v>
-      </c>
-      <c r="X7" t="n">
-        <v>3162</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>28882</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>359</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>124</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>5291</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>1661</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>3924</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>3443</v>
+        <v>22.4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2021年C</t>
+          <t>2019年B</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>17693</v>
+        <v>9860</v>
       </c>
       <c r="C8" t="n">
-        <v>18.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>13787</v>
+        <v>5424</v>
       </c>
       <c r="E8" t="n">
-        <v>24</v>
+        <v>12.4</v>
       </c>
       <c r="F8" t="n">
-        <v>9309</v>
+        <v>5229</v>
       </c>
       <c r="G8" t="n">
-        <v>30.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H8" t="n">
-        <v>84205</v>
+        <v>40552</v>
       </c>
       <c r="I8" t="n">
-        <v>21.8</v>
+        <v>7.9</v>
       </c>
       <c r="J8" t="n">
-        <v>916</v>
+        <v>682</v>
       </c>
       <c r="K8" t="n">
-        <v>35.3</v>
+        <v>4.2</v>
       </c>
       <c r="L8" t="n">
-        <v>359</v>
+        <v>198</v>
       </c>
       <c r="M8" t="n">
-        <v>13.8</v>
+        <v>10.2</v>
       </c>
       <c r="N8" t="n">
-        <v>15974</v>
+        <v>7112</v>
       </c>
       <c r="O8" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="P8" t="n">
-        <v>4880</v>
+        <v>2586</v>
       </c>
       <c r="Q8" t="n">
-        <v>17.8</v>
+        <v>5.3</v>
       </c>
       <c r="R8" t="n">
-        <v>11441</v>
+        <v>6463</v>
       </c>
       <c r="S8" t="n">
-        <v>18.3</v>
+        <v>-2</v>
       </c>
       <c r="T8" t="n">
-        <v>9847</v>
+        <v>2997</v>
       </c>
       <c r="U8" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="V8" t="n">
-        <v>6209</v>
-      </c>
-      <c r="W8" t="n">
-        <v>4768</v>
-      </c>
-      <c r="X8" t="n">
-        <v>3140</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>29825</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>324</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>133</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>5880</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>1857</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>4082</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>3432</v>
+        <v>25.1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
+          <t>2019年D</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>18585</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="n">
+        <v>12276</v>
+      </c>
+      <c r="E9" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="F9" t="n">
+        <v>11005</v>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="n">
+        <v>86624</v>
+      </c>
+      <c r="I9" t="n">
+        <v>7</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>221</v>
+      </c>
+      <c r="M9" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="N9" t="n">
+        <v>16532</v>
+      </c>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="n">
+        <v>13899</v>
+      </c>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>2020年A</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3823</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-7.7</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2736</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1841</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-31.6</v>
+      </c>
+      <c r="H10" t="n">
+        <v>16889</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-13.9</v>
+      </c>
+      <c r="J10" t="n">
+        <v>119</v>
+      </c>
+      <c r="K10" t="n">
+        <v>-59.1</v>
+      </c>
+      <c r="L10" t="n">
+        <v>47</v>
+      </c>
+      <c r="M10" t="n">
+        <v>-10</v>
+      </c>
+      <c r="N10" t="n">
+        <v>3136</v>
+      </c>
+      <c r="O10" t="n">
+        <v>-15.1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1029</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>-19.8</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2419</v>
+      </c>
+      <c r="S10" t="n">
+        <v>-21.7</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1739</v>
+      </c>
+      <c r="U10" t="n">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>2020年C</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>15855</v>
+      </c>
+      <c r="C11" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>10276</v>
+      </c>
+      <c r="E11" t="n">
+        <v>9</v>
+      </c>
+      <c r="F11" t="n">
+        <v>6878</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-16.5</v>
+      </c>
+      <c r="H11" t="n">
+        <v>66119</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="J11" t="n">
+        <v>683</v>
+      </c>
+      <c r="K11" t="n">
+        <v>-39.9</v>
+      </c>
+      <c r="L11" t="n">
+        <v>298</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="N11" t="n">
+        <v>12549</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3975</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>-3.4</v>
+      </c>
+      <c r="R11" t="n">
+        <v>9171</v>
+      </c>
+      <c r="S11" t="n">
+        <v>-9.5</v>
+      </c>
+      <c r="T11" t="n">
+        <v>6434</v>
+      </c>
+      <c r="U11" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>2020年B</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>9743</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="D12" t="n">
+        <v>6250</v>
+      </c>
+      <c r="E12" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="F12" t="n">
+        <v>4197</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-24.4</v>
+      </c>
+      <c r="H12" t="n">
+        <v>40196</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-6.2</v>
+      </c>
+      <c r="J12" t="n">
+        <v>338</v>
+      </c>
+      <c r="K12" t="n">
+        <v>-48.8</v>
+      </c>
+      <c r="L12" t="n">
+        <v>191</v>
+      </c>
+      <c r="M12" t="n">
+        <v>-1.9</v>
+      </c>
+      <c r="N12" t="n">
+        <v>7399</v>
+      </c>
+      <c r="O12" t="n">
+        <v>-5.9</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2436</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>-10</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5646</v>
+      </c>
+      <c r="S12" t="n">
+        <v>-13.3</v>
+      </c>
+      <c r="T12" t="n">
+        <v>3996</v>
+      </c>
+      <c r="U12" t="n">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>2020年D</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>23275</v>
+      </c>
+      <c r="C13" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="D13" t="n">
+        <v>15645</v>
+      </c>
+      <c r="E13" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="F13" t="n">
+        <v>10428</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-11.8</v>
+      </c>
+      <c r="H13" t="n">
+        <v>98514</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1115</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-30.2</v>
+      </c>
+      <c r="L13" t="n">
+        <v>451</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="N13" t="n">
+        <v>18808</v>
+      </c>
+      <c r="O13" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5893</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="R13" t="n">
+        <v>13519</v>
+      </c>
+      <c r="S13" t="n">
+        <v>-6.9</v>
+      </c>
+      <c r="T13" t="n">
+        <v>9382</v>
+      </c>
+      <c r="U13" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>2021年A</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>5319</v>
+      </c>
+      <c r="C14" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>4266</v>
+      </c>
+      <c r="E14" t="n">
+        <v>45</v>
+      </c>
+      <c r="F14" t="n">
+        <v>3007</v>
+      </c>
+      <c r="G14" t="n">
+        <v>50</v>
+      </c>
+      <c r="H14" t="n">
+        <v>25498</v>
+      </c>
+      <c r="I14" t="n">
+        <v>40.4</v>
+      </c>
+      <c r="J14" t="n">
+        <v>233</v>
+      </c>
+      <c r="K14" t="n">
+        <v>101.8</v>
+      </c>
+      <c r="L14" t="n">
+        <v>102</v>
+      </c>
+      <c r="M14" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="N14" t="n">
+        <v>4803</v>
+      </c>
+      <c r="O14" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1362</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="R14" t="n">
+        <v>3435</v>
+      </c>
+      <c r="S14" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2972</v>
+      </c>
+      <c r="U14" t="n">
+        <v>34.9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>2021年C</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>17693</v>
+      </c>
+      <c r="C15" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="D15" t="n">
+        <v>13787</v>
+      </c>
+      <c r="E15" t="n">
+        <v>24</v>
+      </c>
+      <c r="F15" t="n">
+        <v>9309</v>
+      </c>
+      <c r="G15" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="H15" t="n">
+        <v>84205</v>
+      </c>
+      <c r="I15" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="J15" t="n">
+        <v>916</v>
+      </c>
+      <c r="K15" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="L15" t="n">
+        <v>359</v>
+      </c>
+      <c r="M15" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="N15" t="n">
+        <v>15974</v>
+      </c>
+      <c r="O15" t="n">
+        <v>22</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4880</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="R15" t="n">
+        <v>11441</v>
+      </c>
+      <c r="S15" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="T15" t="n">
+        <v>9847</v>
+      </c>
+      <c r="U15" t="n">
+        <v>22.1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>2021年B</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>11484</v>
+      </c>
+      <c r="C16" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="D16" t="n">
+        <v>9019</v>
+      </c>
+      <c r="E16" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="F16" t="n">
+        <v>6169</v>
+      </c>
+      <c r="G16" t="n">
+        <v>42.6</v>
+      </c>
+      <c r="H16" t="n">
+        <v>54380</v>
+      </c>
+      <c r="I16" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="J16" t="n">
+        <v>592</v>
+      </c>
+      <c r="K16" t="n">
+        <v>78.90000000000001</v>
+      </c>
+      <c r="L16" t="n">
+        <v>226</v>
+      </c>
+      <c r="M16" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="N16" t="n">
+        <v>10094</v>
+      </c>
+      <c r="O16" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3023</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="R16" t="n">
+        <v>7359</v>
+      </c>
+      <c r="S16" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="T16" t="n">
+        <v>6415</v>
+      </c>
+      <c r="U16" t="n">
+        <v>27.7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
           <t>2021年D</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B17" t="n">
         <v>25163</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C17" t="n">
         <v>14.8</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D17" t="n">
         <v>19565</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E17" t="n">
         <v>16.6</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F17" t="n">
         <v>12962</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G17" t="n">
         <v>20.7</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H17" t="n">
         <v>119064</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I17" t="n">
         <v>16</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J17" t="n">
         <v>1306</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K17" t="n">
         <v>18.1</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L17" t="n">
         <v>547</v>
       </c>
-      <c r="M9" t="n">
+      <c r="M17" t="n">
         <v>14.3</v>
       </c>
-      <c r="N9" t="n">
+      <c r="N17" t="n">
         <v>22654</v>
       </c>
-      <c r="O9" t="n">
+      <c r="O17" t="n">
         <v>16.2</v>
       </c>
-      <c r="P9" t="n">
+      <c r="P17" t="n">
         <v>6940</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="Q17" t="n">
         <v>13.6</v>
       </c>
-      <c r="R9" t="n">
+      <c r="R17" t="n">
         <v>16212</v>
       </c>
-      <c r="S9" t="n">
+      <c r="S17" t="n">
         <v>14.6</v>
       </c>
-      <c r="T9" t="n">
+      <c r="T17" t="n">
         <v>13715</v>
       </c>
-      <c r="U9" t="n">
+      <c r="U17" t="n">
         <v>15.5</v>
-      </c>
-      <c r="V9" t="n">
-        <v>7470</v>
-      </c>
-      <c r="W9" t="n">
-        <v>5778</v>
-      </c>
-      <c r="X9" t="n">
-        <v>3653</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>34859</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>390</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>188</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>6680</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>2060</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>4771</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>3868</v>
       </c>
     </row>
   </sheetData>
